--- a/Gephi/Statistics_In_Out_Percentage.xlsx
+++ b/Gephi/Statistics_In_Out_Percentage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenehwang/Documents/GitHub/FedRAMP_800-53_Controls/Gephi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F7C57-B335-244E-A152-D2E711E2D2AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3870768A-A3CD-1348-AAA8-55F7BB87B979}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27260" windowHeight="17040" xr2:uid="{E0953656-FDFC-8841-89ED-410EE5DA8F7D}"/>
   </bookViews>
@@ -16,16 +16,17 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$18</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$18</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">Sheet1!$A$2:$A$18</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$B$2:$B$18</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$C$2:$C$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$19</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$19</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$19</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$19</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2:$B$19</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$2:$C$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -167,6 +168,1149 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>within group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Program Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Risk Assessment</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Media Protection</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>System and Information Integrity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maintenance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Awareness and Training</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Security Assessment and Authorization</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Identification and Authentication</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Physical and Environmental Protection</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>System and Communications Protection</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Access Control</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Configuration Management</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>System and Services Acquisition</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Audit and Accountability</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Incident Response</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Contingency Planning</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Personnel Security</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6363640000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.108108E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1967209999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.8495580000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0909089999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10344828</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10389610000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14084506999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18238994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19170983999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19424459999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.20370369999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21621621999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.23214286000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.27692307999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.28205128000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDD6-6443-8AAF-F07F85969298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>outside group</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>Program Management</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Planning</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Risk Assessment</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Media Protection</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>System and Information Integrity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Maintenance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Awareness and Training</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Security Assessment and Authorization</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Identification and Authentication</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Physical and Environmental Protection</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>System and Communications Protection</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Access Control</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Configuration Management</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>System and Services Acquisition</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Audit and Accountability</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Incident Response</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Contingency Planning</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Personnel Security</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96363635999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91891891999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91803279000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91150441999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.90909090999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89655172000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.89610389999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.85915492999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.81761006000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.80829015999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80575540000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.79629629999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.78378378000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.76785714000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.72307692000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.71794871999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDD6-6443-8AAF-F07F85969298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="664632208"/>
+        <c:axId val="664633888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664632208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664633888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664633888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664632208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39F7547-CD12-2D48-A927-5547EBDFF93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -469,7 +1613,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -494,234 +1638,234 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.19170983999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.80829015999999998</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>0.21621621999999999</v>
+        <v>3.6363640000000003E-2</v>
       </c>
       <c r="C3" s="2">
-        <v>0.78378378000000004</v>
+        <v>0.96363635999999997</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>0.10344828</v>
+        <v>8.108108E-2</v>
       </c>
       <c r="C4" s="2">
-        <v>0.89655172000000005</v>
+        <v>0.91891891999999997</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2">
-        <v>0.19424459999999999</v>
+        <v>8.1967209999999999E-2</v>
       </c>
       <c r="C5" s="2">
-        <v>0.80575540000000001</v>
+        <v>0.91803279000000004</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2">
-        <v>0.27692307999999999</v>
+        <v>8.8495580000000004E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.72307692000000001</v>
+        <v>0.91150441999999998</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>0.125</v>
+        <v>9.0909089999999998E-2</v>
       </c>
       <c r="C7" s="2">
-        <v>0.875</v>
+        <v>0.90909090999999997</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>0.23214286000000001</v>
+        <v>0.10344828</v>
       </c>
       <c r="C8" s="2">
-        <v>0.76785714000000005</v>
+        <v>0.89655172000000005</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>9.0909089999999998E-2</v>
+        <v>0.10389610000000001</v>
       </c>
       <c r="C9" s="2">
-        <v>0.90909090999999997</v>
+        <v>0.89610389999999995</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>8.1967209999999999E-2</v>
+        <v>0.125</v>
       </c>
       <c r="C10" s="2">
-        <v>0.91803279000000004</v>
+        <v>0.875</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>0.28205128000000002</v>
+        <v>0.14084506999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>0.71794871999999998</v>
+        <v>0.85915492999999998</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
-        <v>0.14084506999999999</v>
+        <v>0.18238994</v>
       </c>
       <c r="C12" s="2">
-        <v>0.85915492999999998</v>
+        <v>0.81761006000000003</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>3.6363640000000003E-2</v>
+        <v>0.19170983999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>0.96363635999999997</v>
+        <v>0.80829015999999998</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2">
-        <v>0</v>
+        <v>0.19424459999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>1</v>
+        <v>0.80575540000000001</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>8.108108E-2</v>
+        <v>0.20370369999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>0.91891891999999997</v>
+        <v>0.79629629999999996</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>0.10389610000000001</v>
+        <v>0.21621621999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>0.89610389999999995</v>
+        <v>0.78378378000000004</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>0.18238994</v>
+        <v>0.23214286000000001</v>
       </c>
       <c r="C17" s="2">
-        <v>0.81761006000000003</v>
+        <v>0.76785714000000005</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2">
-        <v>8.8495580000000004E-2</v>
+        <v>0.27692307999999999</v>
       </c>
       <c r="C18" s="2">
-        <v>0.91150441999999998</v>
+        <v>0.72307692000000001</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2">
-        <v>0.20370369999999999</v>
+        <v>0.28205128000000002</v>
       </c>
       <c r="C19" s="2">
-        <v>0.79629629999999996</v>
+        <v>0.71794871999999998</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -733,5 +1877,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gephi/Statistics_In_Out_Percentage.xlsx
+++ b/Gephi/Statistics_In_Out_Percentage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eugenehwang/Documents/GitHub/FedRAMP_800-53_Controls/Gephi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3870768A-A3CD-1348-AAA8-55F7BB87B979}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA38E58-ED56-6D48-9127-58BED0493017}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="27260" windowHeight="17040" xr2:uid="{E0953656-FDFC-8841-89ED-410EE5DA8F7D}"/>
   </bookViews>
@@ -17,16 +17,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$A$2:$A$19</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$B$2:$B$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$C$2:$C$19</definedName>
-    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$A$2:$A$19</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$2:$B$19</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$2:$C$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1613,7 +1603,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B2" sqref="B2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
